--- a/Metadata/Processed/20211019MetaData.xlsx
+++ b/Metadata/Processed/20211019MetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriamarland/Documents/GitHub/GcMsDataProcess/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FC351-6172-054F-8DC4-0929E4A79D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4E8BC-CD2D-8547-9AA8-ACF426911E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="47">
   <si>
     <t>MeOH Blk</t>
   </si>
@@ -120,32 +120,69 @@
     <t>MethodName</t>
   </si>
   <si>
+    <t>SamplePath</t>
+  </si>
+  <si>
+    <t>DataName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Dilution</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>QuantWeight</t>
+  </si>
+  <si>
+    <t>TotalWeight</t>
+  </si>
+  <si>
+    <t>Check Standard</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Blotter</t>
+  </si>
+  <si>
     <t>MethodPath</t>
   </si>
   <si>
-    <t>SamplePath</t>
-  </si>
-  <si>
-    <t>DataName</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>Cal</t>
+    <t>SampleType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,9 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,1401 +496,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
         <v>211019001</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
         <v>211019002</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
         <v>211019003</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
         <v>211019004</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>211019005</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
         <v>211019006</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>211019007</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>211019008</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>211019009</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <v>211019010</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>211019011</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
         <v>211019012</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
         <v>211019013</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
         <v>211019014</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
         <v>211019015</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
         <v>211019016</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
         <v>211019017</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
         <v>211019018</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
         <v>211019019</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
         <v>211019020</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
         <v>211019021</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
         <v>211019022</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
         <v>211019023</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
         <v>211019024</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
         <v>211019025</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
         <v>211019026</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
         <v>211019027</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
         <v>211019028</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
         <v>211019029</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>8</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
         <v>211019030</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1">
         <v>25</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
         <v>211019031</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
         <v>211019032</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
         <v>26</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
         <v>211019033</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
         <v>211019034</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1">
         <v>27</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
         <v>211019035</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>10</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
         <v>211019036</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1">
         <v>28</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
         <v>211019037</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
         <v>211019038</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
         <v>211019039</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>10</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
         <v>211019040</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
         <v>30</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
         <v>211019041</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>10</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
         <v>211019042</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
         <v>31</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
         <v>211019043</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
         <v>211019044</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
         <v>32</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
         <v>211019045</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1865,8 +2378,9 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1881,8 +2395,9 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1897,8 +2412,9 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1913,8 +2429,9 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1929,8 +2446,9 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1945,8 +2463,9 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1961,8 +2480,9 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1977,8 +2497,9 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1993,8 +2514,9 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2009,8 +2531,9 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2025,8 +2548,9 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2041,8 +2565,9 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2057,8 +2582,9 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2073,8 +2599,9 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2089,8 +2616,9 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2105,8 +2633,9 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2121,8 +2650,9 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2137,8 +2667,9 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2153,8 +2684,9 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2169,6 +2701,85 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
